--- a/data/hongfa_gw_map.xlsx
+++ b/data/hongfa_gw_map.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t>address</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>key</t>
+  </si>
+  <si>
+    <t>AGW23</t>
   </si>
   <si>
     <t>0x0000</t>
@@ -58,7 +61,10 @@
 24: 4G网关路由</t>
   </si>
   <si>
-    <t>GWT</t>
+    <t>GDT</t>
+  </si>
+  <si>
+    <t>gateway_device_type</t>
   </si>
   <si>
     <t>0x0001</t>
@@ -70,7 +76,10 @@
     <t>范围0-32个</t>
   </si>
   <si>
-    <t>SC</t>
+    <t>SCC</t>
+  </si>
+  <si>
+    <t>switch_count_configured</t>
   </si>
   <si>
     <t>0x0002</t>
@@ -80,6 +89,9 @@
   </si>
   <si>
     <t>SCO</t>
+  </si>
+  <si>
+    <t>switch_count_online</t>
   </si>
   <si>
     <t>0x0003</t>
@@ -96,7 +108,10 @@
 3，其他为出厂时间</t>
   </si>
   <si>
-    <t>GWID</t>
+    <t>GID</t>
+  </si>
+  <si>
+    <t>gateway_ID</t>
   </si>
   <si>
     <t>0x0007</t>
@@ -116,34 +131,43 @@
 16:4P</t>
   </si>
   <si>
+    <t>SDT</t>
+  </si>
+  <si>
+    <t>switch_device_type</t>
+  </si>
+  <si>
+    <t>0x0008</t>
+  </si>
+  <si>
+    <t>第一个从机设备地址</t>
+  </si>
+  <si>
+    <t>1-247</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>switch_address</t>
+  </si>
+  <si>
+    <t>0x0009</t>
+  </si>
+  <si>
+    <t>第一个从机设备设备ID号</t>
+  </si>
+  <si>
+    <t>SID</t>
+  </si>
+  <si>
+    <t>0x000D</t>
+  </si>
+  <si>
+    <t>第二个从机设备类型</t>
+  </si>
+  <si>
     <t>ST</t>
-  </si>
-  <si>
-    <t>0x0008</t>
-  </si>
-  <si>
-    <t>第一个从机设备地址</t>
-  </si>
-  <si>
-    <t>1-247</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>0x0009</t>
-  </si>
-  <si>
-    <t>第一个从机设备设备ID号</t>
-  </si>
-  <si>
-    <t>SID</t>
-  </si>
-  <si>
-    <t>0x000D</t>
-  </si>
-  <si>
-    <t>第二个从机设备类型</t>
   </si>
   <si>
     <t>0x000E</t>
@@ -163,10 +187,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -211,6 +235,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -218,64 +250,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -296,23 +290,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,6 +326,36 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -342,25 +366,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,79 +534,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,73 +546,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,36 +586,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -603,24 +597,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,6 +624,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -656,149 +680,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -822,6 +846,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1142,22 +1169,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="39.75" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="28.875" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="58" customHeight="1" spans="1:8">
+    <row r="1" ht="58" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1182,241 +1210,294 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" ht="58" customHeight="1" spans="1:8">
+    <row r="2" ht="58" customHeight="1" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="58" customHeight="1" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
-        <v>13</v>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" ht="58" customHeight="1" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
+    <row r="4" ht="58" customHeight="1" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>17</v>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" ht="58" customHeight="1" spans="1:8">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" ht="58" customHeight="1" spans="1:8">
+    <row r="5" ht="58" customHeight="1" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F5" s="3">
         <v>4</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="H5" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" ht="58" customHeight="1" spans="1:8">
+    <row r="6" ht="58" customHeight="1" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="58" customHeight="1" spans="1:9">
+      <c r="A7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="58" customHeight="1" spans="1:9">
+      <c r="A8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" ht="58" customHeight="1" spans="1:8">
-      <c r="A7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" ht="58" customHeight="1" spans="1:8">
-      <c r="A8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
         <v>4</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="H8" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" ht="58" customHeight="1" spans="1:8">
+    <row r="9" ht="58" customHeight="1" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="58" customHeight="1" spans="1:9">
+      <c r="A10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
-        <v>29</v>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" ht="58" customHeight="1" spans="1:8">
-      <c r="A10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" ht="58" customHeight="1" spans="1:8">
+    <row r="11" ht="58" customHeight="1" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
         <v>4</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="H11" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/hongfa_gw_map.xlsx
+++ b/data/hongfa_gw_map.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
   <si>
     <t>address</t>
   </si>
@@ -167,9 +167,6 @@
     <t>第二个从机设备类型</t>
   </si>
   <si>
-    <t>ST</t>
-  </si>
-  <si>
     <t>0x000E</t>
   </si>
   <si>
@@ -187,10 +184,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -214,44 +211,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,6 +254,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -289,62 +293,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,187 +363,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,26 +574,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,26 +605,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,11 +655,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,145 +677,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1171,8 +1168,8 @@
   <sheetPr/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1435,10 +1432,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I9" s="8">
         <v>1</v>
@@ -1446,10 +1443,10 @@
     </row>
     <row r="10" ht="58" customHeight="1" spans="1:9">
       <c r="A10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>11</v>
@@ -1467,7 +1464,7 @@
         <v>39</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I10" s="8">
         <v>1</v>
@@ -1475,10 +1472,10 @@
     </row>
     <row r="11" ht="58" customHeight="1" spans="1:9">
       <c r="A11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>27</v>

--- a/data/hongfa_gw_map.xlsx
+++ b/data/hongfa_gw_map.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
   <si>
     <t>address</t>
   </si>
@@ -178,18 +178,74 @@
   <si>
     <t>第二个从机设备设备ID号</t>
   </si>
+  <si>
+    <t>0x0247</t>
+  </si>
+  <si>
+    <t>数据上报周期</t>
+  </si>
+  <si>
+    <t>0x03/0x06/0x10</t>
+  </si>
+  <si>
+    <r>
+      <t>Y/10（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="CIDFont"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1-20000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="CIDFont"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">*0.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分钟默认 150（即 15 分钟）</t>
+    </r>
+  </si>
+  <si>
+    <t>DRI</t>
+  </si>
+  <si>
+    <t>data_report_interval</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +266,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.95"/>
+      <color rgb="FF000000"/>
+      <name val="CIDFont"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -218,7 +286,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,8 +314,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,8 +384,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,87 +416,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="CIDFont"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -363,181 +437,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,6 +649,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -585,7 +668,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,6 +699,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,45 +743,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -677,10 +751,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,137 +763,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -843,6 +917,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1166,10 +1252,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1207,7 +1293,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1236,7 +1322,7 @@
       <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1265,7 +1351,7 @@
       <c r="H3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1294,7 +1380,7 @@
       <c r="H4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1323,7 +1409,7 @@
       <c r="H5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1352,7 +1438,7 @@
       <c r="H6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1381,7 +1467,7 @@
       <c r="H7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1408,7 +1494,7 @@
       <c r="H8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1437,7 +1523,7 @@
       <c r="H9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1466,7 +1552,7 @@
       <c r="H10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1493,9 +1579,41 @@
       <c r="H11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="8">
-        <v>1</v>
-      </c>
+      <c r="I11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="26.25" spans="1:9">
+      <c r="A12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/hongfa_gw_map.xlsx
+++ b/data/hongfa_gw_map.xlsx
@@ -1981,39 +1981,13 @@
     <t>key158</t>
   </si>
   <si>
-    <t>0x247</t>
+    <t>0x0247</t>
   </si>
   <si>
     <t>数据周期上报</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（1-20000）*0.1分钟</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>默认150（即15分钟）</t>
-    </r>
+    <t>Y/10（1-20000）*0.1分钟 默认150（即15分钟）</t>
   </si>
   <si>
     <t>id159</t>
@@ -2274,10 +2248,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2328,59 +2302,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2395,17 +2317,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2418,7 +2332,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2427,14 +2356,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2449,8 +2370,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2464,8 +2400,46 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2480,7 +2454,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2498,6 +2502,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2510,7 +2568,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2528,31 +2622,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2564,103 +2634,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2689,20 +2663,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2722,37 +2693,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2772,17 +2723,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2792,10 +2766,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2804,7 +2778,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2813,28 +2787,22 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2843,94 +2811,100 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3339,8 +3313,8 @@
   <sheetPr/>
   <dimension ref="A1:J174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="G159" sqref="G159"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="E166" sqref="E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data/hongfa_gw_map.xlsx
+++ b/data/hongfa_gw_map.xlsx
@@ -1148,7 +1148,7 @@
     <t>key109</t>
   </si>
   <si>
-    <t>0x0E0-0x0F8</t>
+    <t>0x0E0</t>
   </si>
   <si>
     <r>
@@ -1180,7 +1180,7 @@
     <t>key110</t>
   </si>
   <si>
-    <t>0xF9-0x107</t>
+    <t>0xF9</t>
   </si>
   <si>
     <t>IMEI号（移动设备号）</t>
@@ -2250,8 +2250,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2308,13 +2308,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -2323,11 +2316,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2354,6 +2370,58 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -2369,77 +2437,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2454,13 +2454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2478,7 +2472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2490,25 +2484,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2526,7 +2520,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2538,67 +2574,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2616,7 +2610,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2628,13 +2634,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2678,17 +2678,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2708,6 +2720,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2722,54 +2760,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2778,192 +2778,167 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3313,8 +3288,10 @@
   <sheetPr/>
   <dimension ref="A1:J174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="E166" sqref="E166"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G159" sqref="G159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3355,5384 +3332,5394 @@
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:10">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:10">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:10">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:10">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:10">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>4</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:10">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:10">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:10">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="2">
         <v>4</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:10">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:10">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="2">
         <v>4</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:10">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:10">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:10">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="2">
         <v>4</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:10">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:10">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:10">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="2">
         <v>4</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:10">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="20" ht="30" customHeight="1" spans="1:10">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:10">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="D21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="2">
         <v>4</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:10">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1" spans="1:10">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="24" ht="30" customHeight="1" spans="1:10">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="D24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="2">
         <v>4</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:10">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I25" s="3">
-        <v>0</v>
-      </c>
-      <c r="J25" s="3">
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:10">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:10">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="D27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="2">
         <v>4</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:10">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3" t="s">
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="3">
-        <v>0</v>
-      </c>
-      <c r="J28" s="3">
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:10">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:10">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="3">
+      <c r="D30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="2">
         <v>4</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I30" s="3">
-        <v>0</v>
-      </c>
-      <c r="J30" s="3">
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="31" ht="30" customHeight="1" spans="1:10">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3" t="s">
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I31" s="3">
-        <v>0</v>
-      </c>
-      <c r="J31" s="3">
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="32" ht="30" customHeight="1" spans="1:10">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3" t="s">
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:10">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="D33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="2">
         <v>4</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:10">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3" t="s">
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I34" s="3">
-        <v>0</v>
-      </c>
-      <c r="J34" s="3">
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="35" ht="30" customHeight="1" spans="1:10">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3" t="s">
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="36" ht="30" customHeight="1" spans="1:10">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" s="3">
+      <c r="D36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="2">
         <v>4</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I36" s="3">
-        <v>0</v>
-      </c>
-      <c r="J36" s="3">
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="37" ht="30" customHeight="1" spans="1:10">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3" t="s">
+      <c r="C37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I37" s="3">
-        <v>0</v>
-      </c>
-      <c r="J37" s="3">
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="38" ht="30" customHeight="1" spans="1:10">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="3" t="s">
+      <c r="C38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I38" s="3">
-        <v>0</v>
-      </c>
-      <c r="J38" s="3">
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="39" ht="30" customHeight="1" spans="1:10">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="3">
+      <c r="D39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="2">
         <v>4</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I39" s="3">
-        <v>0</v>
-      </c>
-      <c r="J39" s="3">
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="40" ht="30" customHeight="1" spans="1:10">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3" t="s">
+      <c r="C40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I40" s="3">
-        <v>0</v>
-      </c>
-      <c r="J40" s="3">
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="41" ht="30" customHeight="1" spans="1:10">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3" t="s">
+      <c r="C41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="42" ht="30" customHeight="1" spans="1:10">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F42" s="3">
+      <c r="D42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" s="2">
         <v>4</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="43" ht="30" customHeight="1" spans="1:10">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-      <c r="G43" s="3" t="s">
+      <c r="C43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="44" ht="30" customHeight="1" spans="1:10">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1</v>
-      </c>
-      <c r="G44" s="3" t="s">
+      <c r="C44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="45" ht="30" customHeight="1" spans="1:10">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="D45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" s="2">
         <v>4</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="46" ht="30" customHeight="1" spans="1:10">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1</v>
-      </c>
-      <c r="G46" s="3" t="s">
+      <c r="C46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="47" ht="30" customHeight="1" spans="1:10">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1</v>
-      </c>
-      <c r="G47" s="3" t="s">
+      <c r="C47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="48" ht="30" customHeight="1" spans="1:10">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="D48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" s="2">
         <v>4</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="49" ht="30" customHeight="1" spans="1:10">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1</v>
-      </c>
-      <c r="G49" s="3" t="s">
+      <c r="C49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="50" ht="30" customHeight="1" spans="1:10">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F50" s="3">
-        <v>1</v>
-      </c>
-      <c r="G50" s="3" t="s">
+      <c r="C50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" s="2">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I50" s="3">
-        <v>0</v>
-      </c>
-      <c r="J50" s="3">
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="51" ht="30" customHeight="1" spans="1:10">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F51" s="3">
+      <c r="D51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" s="2">
         <v>4</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G51" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I51" s="3">
-        <v>0</v>
-      </c>
-      <c r="J51" s="3">
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="52" ht="30" customHeight="1" spans="1:10">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1</v>
-      </c>
-      <c r="G52" s="3" t="s">
+      <c r="C52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52" s="2">
+        <v>1</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="53" ht="30" customHeight="1" spans="1:10">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F53" s="3">
-        <v>1</v>
-      </c>
-      <c r="G53" s="3" t="s">
+      <c r="C53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H53" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I53" s="3">
-        <v>0</v>
-      </c>
-      <c r="J53" s="3">
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="54" ht="30" customHeight="1" spans="1:10">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="D54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54" s="2">
         <v>4</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G54" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="H54" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="55" ht="30" customHeight="1" spans="1:10">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F55" s="3">
-        <v>1</v>
-      </c>
-      <c r="G55" s="3" t="s">
+      <c r="C55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" s="2">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I55" s="3">
-        <v>0</v>
-      </c>
-      <c r="J55" s="3">
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="56" ht="30" customHeight="1" spans="1:10">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F56" s="3">
-        <v>1</v>
-      </c>
-      <c r="G56" s="3" t="s">
+      <c r="C56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="H56" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I56" s="3">
-        <v>0</v>
-      </c>
-      <c r="J56" s="3">
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="57" ht="30" customHeight="1" spans="1:10">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F57" s="3">
+      <c r="D57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" s="2">
         <v>4</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G57" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="H57" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="58" ht="30" customHeight="1" spans="1:10">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1</v>
-      </c>
-      <c r="G58" s="3" t="s">
+      <c r="C58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" s="2">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="59" ht="30" customHeight="1" spans="1:10">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1</v>
-      </c>
-      <c r="G59" s="3" t="s">
+      <c r="C59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59" s="2">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="H59" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="60" ht="30" customHeight="1" spans="1:10">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F60" s="3">
+      <c r="D60" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60" s="2">
         <v>4</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G60" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="H60" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+      <c r="J60" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="61" ht="30" customHeight="1" spans="1:10">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1</v>
-      </c>
-      <c r="G61" s="3" t="s">
+      <c r="C61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61" s="2">
+        <v>1</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="H61" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="62" ht="30" customHeight="1" spans="1:10">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1</v>
-      </c>
-      <c r="G62" s="3" t="s">
+      <c r="C62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F62" s="2">
+        <v>1</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="H62" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="63" ht="30" customHeight="1" spans="1:10">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F63" s="3">
+      <c r="D63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F63" s="2">
         <v>4</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G63" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="H63" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I63" s="3">
-        <v>0</v>
-      </c>
-      <c r="J63" s="3">
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="64" ht="30" customHeight="1" spans="1:10">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F64" s="3">
-        <v>1</v>
-      </c>
-      <c r="G64" s="3" t="s">
+      <c r="C64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F64" s="2">
+        <v>1</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="H64" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I64" s="3">
-        <v>0</v>
-      </c>
-      <c r="J64" s="3">
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="65" ht="30" customHeight="1" spans="1:10">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F65" s="3">
-        <v>1</v>
-      </c>
-      <c r="G65" s="3" t="s">
+      <c r="C65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F65" s="2">
+        <v>1</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H65" s="3" t="s">
+      <c r="H65" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I65" s="3">
-        <v>0</v>
-      </c>
-      <c r="J65" s="3">
+      <c r="I65" s="2">
+        <v>0</v>
+      </c>
+      <c r="J65" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="66" ht="30" customHeight="1" spans="1:10">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F66" s="3">
+      <c r="D66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F66" s="2">
         <v>4</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="G66" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="H66" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="I66" s="2">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="67" ht="30" customHeight="1" spans="1:10">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F67" s="3">
-        <v>1</v>
-      </c>
-      <c r="G67" s="3" t="s">
+      <c r="C67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F67" s="2">
+        <v>1</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="H67" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I67" s="3">
-        <v>0</v>
-      </c>
-      <c r="J67" s="3">
+      <c r="I67" s="2">
+        <v>0</v>
+      </c>
+      <c r="J67" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="68" ht="30" customHeight="1" spans="1:10">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F68" s="3">
-        <v>1</v>
-      </c>
-      <c r="G68" s="3" t="s">
+      <c r="C68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" s="2">
+        <v>1</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="H68" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I68" s="3">
-        <v>0</v>
-      </c>
-      <c r="J68" s="3">
+      <c r="I68" s="2">
+        <v>0</v>
+      </c>
+      <c r="J68" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="69" ht="30" customHeight="1" spans="1:10">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F69" s="3">
+      <c r="D69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F69" s="2">
         <v>4</v>
       </c>
-      <c r="G69" s="3" t="s">
+      <c r="G69" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H69" s="3" t="s">
+      <c r="H69" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I69" s="3">
-        <v>0</v>
-      </c>
-      <c r="J69" s="3">
+      <c r="I69" s="2">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="70" ht="30" customHeight="1" spans="1:10">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F70" s="3">
-        <v>1</v>
-      </c>
-      <c r="G70" s="3" t="s">
+      <c r="C70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F70" s="2">
+        <v>1</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="H70" s="3" t="s">
+      <c r="H70" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3">
+      <c r="I70" s="2">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="71" ht="30" customHeight="1" spans="1:10">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F71" s="3">
-        <v>1</v>
-      </c>
-      <c r="G71" s="3" t="s">
+      <c r="C71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F71" s="2">
+        <v>1</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="H71" s="3" t="s">
+      <c r="H71" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I71" s="3">
-        <v>0</v>
-      </c>
-      <c r="J71" s="3">
+      <c r="I71" s="2">
+        <v>0</v>
+      </c>
+      <c r="J71" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="72" ht="30" customHeight="1" spans="1:10">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F72" s="3">
+      <c r="D72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F72" s="2">
         <v>4</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="G72" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="H72" s="3" t="s">
+      <c r="H72" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="I72" s="2">
+        <v>0</v>
+      </c>
+      <c r="J72" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="73" ht="30" customHeight="1" spans="1:10">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F73" s="3">
-        <v>1</v>
-      </c>
-      <c r="G73" s="3" t="s">
+      <c r="C73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F73" s="2">
+        <v>1</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H73" s="3" t="s">
+      <c r="H73" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I73" s="3">
-        <v>0</v>
-      </c>
-      <c r="J73" s="3">
+      <c r="I73" s="2">
+        <v>0</v>
+      </c>
+      <c r="J73" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="74" ht="30" customHeight="1" spans="1:10">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F74" s="3">
-        <v>1</v>
-      </c>
-      <c r="G74" s="3" t="s">
+      <c r="C74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F74" s="2">
+        <v>1</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="H74" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I74" s="3">
-        <v>0</v>
-      </c>
-      <c r="J74" s="3">
+      <c r="I74" s="2">
+        <v>0</v>
+      </c>
+      <c r="J74" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="75" ht="30" customHeight="1" spans="1:10">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F75" s="3">
+      <c r="D75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F75" s="2">
         <v>4</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="G75" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="H75" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I75" s="3">
-        <v>0</v>
-      </c>
-      <c r="J75" s="3">
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
+      <c r="J75" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="76" ht="30" customHeight="1" spans="1:10">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F76" s="3">
-        <v>1</v>
-      </c>
-      <c r="G76" s="3" t="s">
+      <c r="C76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F76" s="2">
+        <v>1</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="H76" s="3" t="s">
+      <c r="H76" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="I76" s="2">
+        <v>0</v>
+      </c>
+      <c r="J76" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="77" ht="30" customHeight="1" spans="1:10">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F77" s="3">
-        <v>1</v>
-      </c>
-      <c r="G77" s="3" t="s">
+      <c r="C77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F77" s="2">
+        <v>1</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="H77" s="3" t="s">
+      <c r="H77" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I77" s="3">
-        <v>0</v>
-      </c>
-      <c r="J77" s="3">
+      <c r="I77" s="2">
+        <v>0</v>
+      </c>
+      <c r="J77" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="78" ht="30" customHeight="1" spans="1:10">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F78" s="3">
+      <c r="D78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F78" s="2">
         <v>4</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="G78" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="H78" s="3" t="s">
+      <c r="H78" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I78" s="3">
-        <v>0</v>
-      </c>
-      <c r="J78" s="3">
+      <c r="I78" s="2">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="79" ht="30" customHeight="1" spans="1:10">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F79" s="3">
-        <v>1</v>
-      </c>
-      <c r="G79" s="3" t="s">
+      <c r="C79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F79" s="2">
+        <v>1</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="H79" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I79" s="3">
-        <v>0</v>
-      </c>
-      <c r="J79" s="3">
+      <c r="I79" s="2">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="80" ht="30" customHeight="1" spans="1:10">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F80" s="3">
-        <v>1</v>
-      </c>
-      <c r="G80" s="3" t="s">
+      <c r="C80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F80" s="2">
+        <v>1</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="H80" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I80" s="3">
-        <v>0</v>
-      </c>
-      <c r="J80" s="3">
+      <c r="I80" s="2">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="81" ht="30" customHeight="1" spans="1:10">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="D81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F81" s="2">
         <v>4</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="G81" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="H81" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="I81" s="2">
+        <v>0</v>
+      </c>
+      <c r="J81" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="82" ht="30" customHeight="1" spans="1:10">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F82" s="3">
-        <v>1</v>
-      </c>
-      <c r="G82" s="3" t="s">
+      <c r="C82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F82" s="2">
+        <v>1</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="H82" s="3" t="s">
+      <c r="H82" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I82" s="3">
-        <v>0</v>
-      </c>
-      <c r="J82" s="3">
+      <c r="I82" s="2">
+        <v>0</v>
+      </c>
+      <c r="J82" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="83" ht="30" customHeight="1" spans="1:10">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1</v>
-      </c>
-      <c r="G83" s="3" t="s">
+      <c r="C83" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F83" s="2">
+        <v>1</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="H83" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="I83" s="2">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="84" ht="30" customHeight="1" spans="1:10">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F84" s="3">
+      <c r="D84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F84" s="2">
         <v>4</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="G84" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="H84" s="3" t="s">
+      <c r="H84" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I84" s="3">
-        <v>0</v>
-      </c>
-      <c r="J84" s="3">
+      <c r="I84" s="2">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="85" ht="30" customHeight="1" spans="1:10">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F85" s="3">
-        <v>1</v>
-      </c>
-      <c r="G85" s="3" t="s">
+      <c r="C85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F85" s="2">
+        <v>1</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="H85" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I85" s="3">
-        <v>0</v>
-      </c>
-      <c r="J85" s="3">
+      <c r="I85" s="2">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="86" ht="30" customHeight="1" spans="1:10">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F86" s="3">
-        <v>1</v>
-      </c>
-      <c r="G86" s="3" t="s">
+      <c r="C86" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F86" s="2">
+        <v>1</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="H86" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I86" s="3">
-        <v>0</v>
-      </c>
-      <c r="J86" s="3">
+      <c r="I86" s="2">
+        <v>0</v>
+      </c>
+      <c r="J86" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="87" ht="30" customHeight="1" spans="1:10">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F87" s="3">
+      <c r="D87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F87" s="2">
         <v>4</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="G87" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="H87" s="3" t="s">
+      <c r="H87" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I87" s="3">
-        <v>0</v>
-      </c>
-      <c r="J87" s="3">
+      <c r="I87" s="2">
+        <v>0</v>
+      </c>
+      <c r="J87" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="88" ht="30" customHeight="1" spans="1:10">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F88" s="3">
-        <v>1</v>
-      </c>
-      <c r="G88" s="3" t="s">
+      <c r="C88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F88" s="2">
+        <v>1</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="H88" s="3" t="s">
+      <c r="H88" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I88" s="3">
-        <v>0</v>
-      </c>
-      <c r="J88" s="3">
+      <c r="I88" s="2">
+        <v>0</v>
+      </c>
+      <c r="J88" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="89" ht="30" customHeight="1" spans="1:10">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F89" s="3">
-        <v>1</v>
-      </c>
-      <c r="G89" s="3" t="s">
+      <c r="C89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F89" s="2">
+        <v>1</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="H89" s="3" t="s">
+      <c r="H89" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="I89" s="2">
+        <v>0</v>
+      </c>
+      <c r="J89" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="90" ht="30" customHeight="1" spans="1:10">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F90" s="3">
+      <c r="D90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F90" s="2">
         <v>4</v>
       </c>
-      <c r="G90" s="3" t="s">
+      <c r="G90" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="H90" s="3" t="s">
+      <c r="H90" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I90" s="3">
-        <v>0</v>
-      </c>
-      <c r="J90" s="3">
+      <c r="I90" s="2">
+        <v>0</v>
+      </c>
+      <c r="J90" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="91" ht="30" customHeight="1" spans="1:10">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F91" s="3">
-        <v>1</v>
-      </c>
-      <c r="G91" s="3" t="s">
+      <c r="C91" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F91" s="2">
+        <v>1</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="H91" s="3" t="s">
+      <c r="H91" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="I91" s="2">
+        <v>0</v>
+      </c>
+      <c r="J91" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="92" ht="30" customHeight="1" spans="1:10">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F92" s="3">
-        <v>1</v>
-      </c>
-      <c r="G92" s="3" t="s">
+      <c r="C92" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F92" s="2">
+        <v>1</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="H92" s="3" t="s">
+      <c r="H92" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I92" s="3">
-        <v>0</v>
-      </c>
-      <c r="J92" s="3">
+      <c r="I92" s="2">
+        <v>0</v>
+      </c>
+      <c r="J92" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="93" ht="30" customHeight="1" spans="1:10">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F93" s="3">
+      <c r="D93" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F93" s="2">
         <v>4</v>
       </c>
-      <c r="G93" s="3" t="s">
+      <c r="G93" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="H93" s="3" t="s">
+      <c r="H93" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I93" s="3">
-        <v>0</v>
-      </c>
-      <c r="J93" s="3">
+      <c r="I93" s="2">
+        <v>0</v>
+      </c>
+      <c r="J93" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="94" ht="30" customHeight="1" spans="1:10">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F94" s="3">
-        <v>1</v>
-      </c>
-      <c r="G94" s="3" t="s">
+      <c r="C94" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F94" s="2">
+        <v>1</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="H94" s="3" t="s">
+      <c r="H94" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="I94" s="2">
+        <v>0</v>
+      </c>
+      <c r="J94" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="95" ht="30" customHeight="1" spans="1:10">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F95" s="3">
-        <v>1</v>
-      </c>
-      <c r="G95" s="3" t="s">
+      <c r="C95" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F95" s="2">
+        <v>1</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="H95" s="3" t="s">
+      <c r="H95" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I95" s="3">
-        <v>0</v>
-      </c>
-      <c r="J95" s="3">
+      <c r="I95" s="2">
+        <v>0</v>
+      </c>
+      <c r="J95" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="96" ht="30" customHeight="1" spans="1:10">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D96" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F96" s="3">
+      <c r="D96" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F96" s="2">
         <v>4</v>
       </c>
-      <c r="G96" s="3" t="s">
+      <c r="G96" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="H96" s="3" t="s">
+      <c r="H96" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
+      <c r="I96" s="2">
+        <v>0</v>
+      </c>
+      <c r="J96" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="97" ht="30" customHeight="1" spans="1:10">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F97" s="3">
-        <v>1</v>
-      </c>
-      <c r="G97" s="3" t="s">
+      <c r="C97" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F97" s="2">
+        <v>1</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="H97" s="3" t="s">
+      <c r="H97" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I97" s="3">
-        <v>0</v>
-      </c>
-      <c r="J97" s="3">
+      <c r="I97" s="2">
+        <v>0</v>
+      </c>
+      <c r="J97" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="98" ht="30" customHeight="1" spans="1:10">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F98" s="3">
-        <v>1</v>
-      </c>
-      <c r="G98" s="3" t="s">
+      <c r="C98" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F98" s="2">
+        <v>1</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="H98" s="3" t="s">
+      <c r="H98" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I98" s="3">
-        <v>0</v>
-      </c>
-      <c r="J98" s="3">
+      <c r="I98" s="2">
+        <v>0</v>
+      </c>
+      <c r="J98" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="99" ht="30" customHeight="1" spans="1:10">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D99" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F99" s="3">
+      <c r="D99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F99" s="2">
         <v>4</v>
       </c>
-      <c r="G99" s="3" t="s">
+      <c r="G99" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="H99" s="3" t="s">
+      <c r="H99" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I99" s="3">
-        <v>0</v>
-      </c>
-      <c r="J99" s="3">
+      <c r="I99" s="2">
+        <v>0</v>
+      </c>
+      <c r="J99" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="100" ht="30" customHeight="1" spans="1:10">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F100" s="3">
-        <v>1</v>
-      </c>
-      <c r="G100" s="3" t="s">
+      <c r="C100" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F100" s="2">
+        <v>1</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H100" s="3" t="s">
+      <c r="H100" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="I100" s="2">
+        <v>0</v>
+      </c>
+      <c r="J100" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="101" ht="30" customHeight="1" spans="1:10">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F101" s="3">
-        <v>1</v>
-      </c>
-      <c r="G101" s="3" t="s">
+      <c r="C101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F101" s="2">
+        <v>1</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="H101" s="3" t="s">
+      <c r="H101" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="I101" s="2">
+        <v>0</v>
+      </c>
+      <c r="J101" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="102" ht="30" customHeight="1" spans="1:10">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="D102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F102" s="2">
         <v>4</v>
       </c>
-      <c r="G102" s="3" t="s">
+      <c r="G102" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="H102" s="3" t="s">
+      <c r="H102" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="I102" s="2">
+        <v>0</v>
+      </c>
+      <c r="J102" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="103" ht="30" customHeight="1" spans="1:10">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E103" s="4" t="s">
+      <c r="C103" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="F103" s="3">
-        <v>1</v>
-      </c>
-      <c r="G103" s="3" t="s">
+      <c r="F103" s="2">
+        <v>1</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="H103" s="3" t="s">
+      <c r="H103" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I103" s="3">
-        <v>0</v>
-      </c>
-      <c r="J103" s="3">
+      <c r="I103" s="2">
+        <v>0</v>
+      </c>
+      <c r="J103" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="104" ht="30" customHeight="1" spans="1:10">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C104" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E104" s="5" t="s">
+      <c r="C104" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="F104" s="3">
-        <v>1</v>
-      </c>
-      <c r="G104" s="3" t="s">
+      <c r="F104" s="2">
+        <v>1</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="H104" s="3" t="s">
+      <c r="H104" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="I104" s="3">
-        <v>0</v>
-      </c>
-      <c r="J104" s="3">
+      <c r="I104" s="2">
+        <v>0</v>
+      </c>
+      <c r="J104" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="105" ht="30" customHeight="1" spans="1:10">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C105" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E105" s="5" t="s">
+      <c r="C105" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="F105" s="3">
-        <v>1</v>
-      </c>
-      <c r="G105" s="3" t="s">
+      <c r="F105" s="2">
+        <v>1</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="H105" s="3" t="s">
+      <c r="H105" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="I105" s="3">
-        <v>0</v>
-      </c>
-      <c r="J105" s="3">
+      <c r="I105" s="2">
+        <v>0</v>
+      </c>
+      <c r="J105" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="106" ht="30" customHeight="1" spans="1:10">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D106" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E106" s="5" t="s">
+      <c r="D106" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F106" s="2">
         <v>10</v>
       </c>
-      <c r="G106" s="3" t="s">
+      <c r="G106" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="H106" s="3" t="s">
+      <c r="H106" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="I106" s="3">
-        <v>0</v>
-      </c>
-      <c r="J106" s="3">
+      <c r="I106" s="2">
+        <v>0</v>
+      </c>
+      <c r="J106" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="107" ht="30" customHeight="1" spans="1:10">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D107" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E107" s="3" t="s">
+      <c r="D107" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="F107" s="3">
-        <v>1</v>
-      </c>
-      <c r="G107" s="3" t="s">
+      <c r="F107" s="2">
+        <v>1</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="H107" s="3" t="s">
+      <c r="H107" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="I107" s="3">
-        <v>0</v>
-      </c>
-      <c r="J107" s="3">
+      <c r="I107" s="2">
+        <v>0</v>
+      </c>
+      <c r="J107" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="108" ht="30" customHeight="1" spans="1:10">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D108" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E108" s="3" t="s">
+      <c r="D108" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="F108" s="3">
-        <v>1</v>
-      </c>
-      <c r="G108" s="3" t="s">
+      <c r="F108" s="2">
+        <v>1</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="H108" s="3" t="s">
+      <c r="H108" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="I108" s="3">
-        <v>0</v>
-      </c>
-      <c r="J108" s="3">
+      <c r="I108" s="2">
+        <v>0</v>
+      </c>
+      <c r="J108" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="109" ht="30" customHeight="1" spans="1:10">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D109" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E109" s="3" t="s">
+      <c r="D109" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="F109" s="3">
-        <v>1</v>
-      </c>
-      <c r="G109" s="3" t="s">
+      <c r="F109" s="2">
+        <v>1</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="H109" s="3" t="s">
+      <c r="H109" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="I109" s="3">
-        <v>0</v>
-      </c>
-      <c r="J109" s="3">
+      <c r="I109" s="2">
+        <v>0</v>
+      </c>
+      <c r="J109" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="110" ht="30" customHeight="1" spans="1:10">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D110" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E110" s="4" t="s">
+      <c r="D110" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="F110" s="3">
+      <c r="F110" s="2">
         <v>25</v>
       </c>
-      <c r="G110" s="3" t="s">
+      <c r="G110" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="H110" s="3" t="s">
+      <c r="H110" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="I110" s="3">
-        <v>0</v>
-      </c>
-      <c r="J110" s="3">
+      <c r="I110" s="2">
+        <v>0</v>
+      </c>
+      <c r="J110" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="111" ht="30" customHeight="1" spans="1:10">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D111" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E111" s="4" t="s">
+      <c r="D111" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="F111" s="3">
+      <c r="F111" s="2">
         <v>15</v>
       </c>
-      <c r="G111" s="3" t="s">
+      <c r="G111" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="H111" s="3" t="s">
+      <c r="H111" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="I111" s="3">
-        <v>0</v>
-      </c>
-      <c r="J111" s="3">
+      <c r="I111" s="2">
+        <v>0</v>
+      </c>
+      <c r="J111" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="112" ht="30" customHeight="1" spans="1:10">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="B112" s="9"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="3" t="s">
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="H112" s="3" t="s">
+      <c r="H112" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
     </row>
     <row r="113" ht="30" customHeight="1" spans="1:10">
-      <c r="A113" s="4" t="s">
+      <c r="A113" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="C113" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D113" s="4" t="s">
+      <c r="C113" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="E113" s="4" t="s">
+      <c r="E113" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="F113" s="4">
-        <v>1</v>
-      </c>
-      <c r="G113" s="3" t="s">
+      <c r="F113" s="3">
+        <v>1</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="H113" s="3" t="s">
+      <c r="H113" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="I113" s="3">
-        <v>1</v>
-      </c>
-      <c r="J113" s="3">
+      <c r="I113" s="2">
+        <v>1</v>
+      </c>
+      <c r="J113" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="114" ht="30" customHeight="1" spans="1:10">
-      <c r="A114" s="4" t="s">
+      <c r="A114" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="C114" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D114" s="4" t="s">
+      <c r="C114" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="E114" s="4" t="s">
+      <c r="E114" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="F114" s="4">
-        <v>1</v>
-      </c>
-      <c r="G114" s="3" t="s">
+      <c r="F114" s="3">
+        <v>1</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="H114" s="3" t="s">
+      <c r="H114" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="I114" s="3">
-        <v>1</v>
-      </c>
-      <c r="J114" s="3">
+      <c r="I114" s="2">
+        <v>1</v>
+      </c>
+      <c r="J114" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="115" ht="30" customHeight="1" spans="1:10">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="C115" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D115" s="4" t="s">
+      <c r="C115" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="E115" s="4" t="s">
+      <c r="E115" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="F115" s="4">
-        <v>1</v>
-      </c>
-      <c r="G115" s="3" t="s">
+      <c r="F115" s="3">
+        <v>1</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="H115" s="3" t="s">
+      <c r="H115" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="I115" s="3">
-        <v>1</v>
-      </c>
-      <c r="J115" s="3">
+      <c r="I115" s="2">
+        <v>1</v>
+      </c>
+      <c r="J115" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="116" ht="30" customHeight="1" spans="1:10">
-      <c r="A116" s="4" t="s">
+      <c r="A116" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="3">
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="2">
         <v>3</v>
       </c>
-      <c r="G116" s="3" t="s">
+      <c r="G116" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="H116" s="3" t="s">
+      <c r="H116" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="I116" s="3"/>
-      <c r="J116" s="3"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
     </row>
     <row r="117" ht="30" customHeight="1" spans="1:10">
-      <c r="A117" s="9" t="s">
+      <c r="A117" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="B117" s="9"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="3" t="s">
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="H117" s="3" t="s">
+      <c r="H117" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
     </row>
     <row r="118" ht="30" customHeight="1" spans="1:10">
-      <c r="A118" s="4" t="s">
+      <c r="A118" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C118" s="4"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4">
-        <v>1</v>
-      </c>
-      <c r="G118" s="3" t="s">
+      <c r="C118" s="3"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3">
+        <v>1</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="H118" s="3" t="s">
+      <c r="H118" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
     </row>
     <row r="119" ht="30" customHeight="1" spans="1:10">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C119" s="4"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="3">
-        <v>1</v>
-      </c>
-      <c r="G119" s="3" t="s">
+      <c r="C119" s="3"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="2">
+        <v>1</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="H119" s="3" t="s">
+      <c r="H119" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
     </row>
     <row r="120" ht="30" customHeight="1" spans="1:10">
-      <c r="A120" s="4" t="s">
+      <c r="A120" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="C120" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D120" s="3" t="s">
+      <c r="C120" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="E120" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="F120" s="3">
-        <v>1</v>
-      </c>
-      <c r="G120" s="3" t="s">
+      <c r="F120" s="2">
+        <v>1</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="H120" s="3" t="s">
+      <c r="H120" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="I120" s="3">
-        <v>1</v>
-      </c>
-      <c r="J120" s="3">
+      <c r="I120" s="2">
+        <v>1</v>
+      </c>
+      <c r="J120" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="121" ht="30" customHeight="1" spans="1:10">
-      <c r="A121" s="8" t="s">
+      <c r="A121" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C121" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D121" s="8" t="s">
+      <c r="C121" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="E121" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="F121" s="3">
-        <v>1</v>
-      </c>
-      <c r="G121" s="3" t="s">
+      <c r="F121" s="2">
+        <v>1</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="H121" s="3" t="s">
+      <c r="H121" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="I121" s="3">
-        <v>1</v>
-      </c>
-      <c r="J121" s="3">
+      <c r="I121" s="2">
+        <v>0</v>
+      </c>
+      <c r="J121" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="122" ht="30" customHeight="1" spans="1:10">
-      <c r="A122" s="4" t="s">
+      <c r="A122" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C122" s="4"/>
-      <c r="D122" s="11"/>
-      <c r="E122" s="12"/>
-      <c r="F122" s="3">
-        <v>1</v>
-      </c>
-      <c r="G122" s="3" t="s">
+      <c r="C122" s="3"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="2">
+        <v>1</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="H122" s="3" t="s">
+      <c r="H122" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="I122" s="3"/>
-      <c r="J122" s="3">
+      <c r="I122" s="2">
+        <v>0</v>
+      </c>
+      <c r="J122" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="123" ht="30" customHeight="1" spans="1:10">
-      <c r="A123" s="4" t="s">
+      <c r="A123" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D123" s="4" t="s">
+      <c r="C123" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="E123" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F123" s="3">
-        <v>1</v>
-      </c>
-      <c r="G123" s="3" t="s">
+      <c r="F123" s="2">
+        <v>1</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="H123" s="3" t="s">
+      <c r="H123" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="I123" s="3">
-        <v>1</v>
-      </c>
-      <c r="J123" s="3">
+      <c r="I123" s="2">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="124" ht="30" customHeight="1" spans="1:10">
-      <c r="A124" s="8" t="s">
+      <c r="A124" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="C124" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D124" s="4" t="s">
+      <c r="C124" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="E124" s="4" t="s">
+      <c r="E124" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F124" s="3">
-        <v>1</v>
-      </c>
-      <c r="G124" s="3" t="s">
+      <c r="F124" s="2">
+        <v>1</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="H124" s="3" t="s">
+      <c r="H124" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="I124" s="3">
-        <v>1</v>
-      </c>
-      <c r="J124" s="3">
+      <c r="I124" s="2">
+        <v>1</v>
+      </c>
+      <c r="J124" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="125" ht="30" customHeight="1" spans="1:10">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C125" s="8" t="s">
+      <c r="C125" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="D125" s="8" t="s">
+      <c r="D125" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="E125" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="F125" s="3">
+      <c r="F125" s="2">
         <v>2</v>
       </c>
-      <c r="G125" s="3" t="s">
+      <c r="G125" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="H125" s="3" t="s">
+      <c r="H125" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="I125" s="3">
-        <v>1</v>
-      </c>
-      <c r="J125" s="3">
+      <c r="I125" s="2">
+        <v>1</v>
+      </c>
+      <c r="J125" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="126" ht="30" customHeight="1" spans="1:10">
-      <c r="A126" s="8" t="s">
+      <c r="A126" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D126" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="E126" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="F126" s="3">
+      <c r="F126" s="2">
         <v>2</v>
       </c>
-      <c r="G126" s="3" t="s">
+      <c r="G126" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="H126" s="3" t="s">
+      <c r="H126" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="I126" s="3">
-        <v>1</v>
-      </c>
-      <c r="J126" s="3">
+      <c r="I126" s="2">
+        <v>1</v>
+      </c>
+      <c r="J126" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="127" ht="30" customHeight="1" spans="1:10">
-      <c r="A127" s="13" t="s">
+      <c r="A127" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="B127" s="13" t="s">
+      <c r="B127" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="C127" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D127" s="13" t="s">
+      <c r="C127" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="E127" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3" t="s">
+      <c r="F127" s="2"/>
+      <c r="G127" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="H127" s="3" t="s">
+      <c r="H127" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="I127" s="3">
-        <v>1</v>
-      </c>
-      <c r="J127" s="3">
+      <c r="I127" s="2">
+        <v>1</v>
+      </c>
+      <c r="J127" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="128" ht="30" customHeight="1" spans="1:10">
-      <c r="A128" s="9" t="s">
+      <c r="A128" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="B128" s="9"/>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="3" t="s">
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="H128" s="3" t="s">
+      <c r="H128" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
     </row>
     <row r="129" ht="30" customHeight="1" spans="1:10">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B129" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4">
-        <v>1</v>
-      </c>
-      <c r="G129" s="3" t="s">
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3">
+        <v>1</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="H129" s="3" t="s">
+      <c r="H129" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
     </row>
     <row r="130" ht="30" customHeight="1" spans="1:10">
-      <c r="A130" s="4" t="s">
+      <c r="A130" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="C130" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D130" s="4" t="s">
+      <c r="C130" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E130" s="3" t="s">
+      <c r="E130" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="F130" s="3">
-        <v>1</v>
-      </c>
-      <c r="G130" s="3" t="s">
+      <c r="F130" s="2">
+        <v>1</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="H130" s="3" t="s">
+      <c r="H130" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="I130" s="19">
-        <v>0</v>
-      </c>
-      <c r="J130" s="3">
+      <c r="I130" s="10">
+        <v>0</v>
+      </c>
+      <c r="J130" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="131" ht="30" customHeight="1" spans="1:10">
-      <c r="A131" s="4" t="s">
+      <c r="A131" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="C131" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D131" s="4" t="s">
+      <c r="C131" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="E131" s="4" t="s">
+      <c r="E131" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="F131" s="3">
-        <v>1</v>
-      </c>
-      <c r="G131" s="3" t="s">
+      <c r="F131" s="2">
+        <v>1</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="H131" s="3" t="s">
+      <c r="H131" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="I131" s="19">
-        <v>0</v>
-      </c>
-      <c r="J131" s="3">
+      <c r="I131" s="10">
+        <v>0</v>
+      </c>
+      <c r="J131" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="132" ht="30" customHeight="1" spans="1:10">
-      <c r="A132" s="4" t="s">
+      <c r="A132" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B132" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C132" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D132" s="4" t="s">
+      <c r="C132" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="E132" s="4" t="s">
+      <c r="E132" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="F132" s="3">
-        <v>1</v>
-      </c>
-      <c r="G132" s="3" t="s">
+      <c r="F132" s="2">
+        <v>1</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="H132" s="3" t="s">
+      <c r="H132" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="I132" s="19">
-        <v>0</v>
-      </c>
-      <c r="J132" s="3">
+      <c r="I132" s="10">
+        <v>0</v>
+      </c>
+      <c r="J132" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="133" ht="30" customHeight="1" spans="1:10">
-      <c r="A133" s="4" t="s">
+      <c r="A133" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="C133" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D133" s="4" t="s">
+      <c r="C133" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="E133" s="4" t="s">
+      <c r="E133" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="F133" s="3">
-        <v>1</v>
-      </c>
-      <c r="G133" s="3" t="s">
+      <c r="F133" s="2">
+        <v>1</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="H133" s="3" t="s">
+      <c r="H133" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="I133" s="19">
-        <v>0</v>
-      </c>
-      <c r="J133" s="3">
+      <c r="I133" s="10">
+        <v>0</v>
+      </c>
+      <c r="J133" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="134" ht="30" customHeight="1" spans="1:10">
-      <c r="A134" s="4" t="s">
+      <c r="A134" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="C134" s="8" t="s">
+      <c r="C134" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="D134" s="4" t="s">
+      <c r="D134" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="E134" s="3" t="s">
+      <c r="E134" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="F134" s="3">
+      <c r="F134" s="2">
         <v>4</v>
       </c>
-      <c r="G134" s="3" t="s">
+      <c r="G134" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="H134" s="3" t="s">
+      <c r="H134" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="I134" s="19">
-        <v>0</v>
-      </c>
-      <c r="J134" s="3">
+      <c r="I134" s="10">
+        <v>0</v>
+      </c>
+      <c r="J134" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="135" ht="30" customHeight="1" spans="1:10">
-      <c r="A135" s="9" t="s">
+      <c r="A135" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="B135" s="9"/>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="3" t="s">
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="H135" s="3" t="s">
+      <c r="H135" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
     </row>
     <row r="136" ht="30" customHeight="1" spans="1:10">
-      <c r="A136" s="4" t="s">
+      <c r="A136" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B136" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C136" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D136" s="14" t="s">
+      <c r="C136" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="E136" s="4" t="s">
+      <c r="E136" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="F136" s="3">
-        <v>1</v>
-      </c>
-      <c r="G136" s="3" t="s">
+      <c r="F136" s="2">
+        <v>1</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="H136" s="3" t="s">
+      <c r="H136" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="I136" s="3">
-        <v>1</v>
-      </c>
-      <c r="J136" s="3">
+      <c r="I136" s="2">
+        <v>0</v>
+      </c>
+      <c r="J136" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="137" ht="30" customHeight="1" spans="1:10">
-      <c r="A137" s="11" t="s">
+      <c r="A137" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="B137" s="11" t="s">
+      <c r="B137" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="C137" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D137" s="15" t="s">
+      <c r="C137" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="E137" s="11" t="s">
+      <c r="E137" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="F137" s="3">
-        <v>1</v>
-      </c>
-      <c r="G137" s="3" t="s">
+      <c r="F137" s="2">
+        <v>1</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="H137" s="3" t="s">
+      <c r="H137" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="I137" s="3">
-        <v>0</v>
-      </c>
-      <c r="J137" s="3">
+      <c r="I137" s="2">
+        <v>0</v>
+      </c>
+      <c r="J137" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="138" ht="30" customHeight="1" spans="1:10">
-      <c r="A138" s="11" t="s">
+      <c r="A138" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="B138" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="C138" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D138" s="15" t="s">
+      <c r="C138" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="E138" s="11" t="s">
+      <c r="E138" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="F138" s="12">
-        <v>1</v>
-      </c>
-      <c r="G138" s="3" t="s">
+      <c r="F138" s="7">
+        <v>1</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="H138" s="3" t="s">
+      <c r="H138" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="I138" s="12">
-        <v>0</v>
-      </c>
-      <c r="J138" s="3">
+      <c r="I138" s="7">
+        <v>0</v>
+      </c>
+      <c r="J138" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="139" ht="30" customHeight="1" spans="1:10">
-      <c r="A139" s="15" t="s">
+      <c r="A139" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B139" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="C139" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D139" s="15" t="s">
+      <c r="C139" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="E139" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="F139" s="12">
-        <v>1</v>
-      </c>
-      <c r="G139" s="3" t="s">
+      <c r="F139" s="7">
+        <v>1</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="H139" s="3" t="s">
+      <c r="H139" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="I139" s="12">
-        <v>0</v>
-      </c>
-      <c r="J139" s="3">
+      <c r="I139" s="7">
+        <v>0</v>
+      </c>
+      <c r="J139" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="140" ht="30" customHeight="1" spans="1:10">
-      <c r="A140" s="15" t="s">
+      <c r="A140" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="C140" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D140" s="15" t="s">
+      <c r="C140" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="E140" s="16" t="s">
+      <c r="E140" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="F140" s="12">
-        <v>1</v>
-      </c>
-      <c r="G140" s="3" t="s">
+      <c r="F140" s="7">
+        <v>1</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="H140" s="3" t="s">
+      <c r="H140" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="I140" s="12">
-        <v>1</v>
-      </c>
-      <c r="J140" s="3">
+      <c r="I140" s="2">
+        <v>0</v>
+      </c>
+      <c r="J140" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="141" ht="30" customHeight="1" spans="1:10">
-      <c r="A141" s="15" t="s">
+      <c r="A141" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="B141" s="11" t="s">
+      <c r="B141" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="C141" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D141" s="15" t="s">
+      <c r="C141" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="E141" s="3" t="s">
+      <c r="E141" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="F141" s="12">
-        <v>1</v>
-      </c>
-      <c r="G141" s="3" t="s">
+      <c r="F141" s="7">
+        <v>1</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="H141" s="3" t="s">
+      <c r="H141" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="I141" s="12">
-        <v>1</v>
-      </c>
-      <c r="J141" s="3">
+      <c r="I141" s="2">
+        <v>0</v>
+      </c>
+      <c r="J141" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="142" ht="30" customHeight="1" spans="1:10">
-      <c r="A142" s="15" t="s">
+      <c r="A142" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="B142" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="C142" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D142" s="15" t="s">
+      <c r="C142" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="E142" s="11" t="s">
+      <c r="E142" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="F142" s="12">
-        <v>1</v>
-      </c>
-      <c r="G142" s="3" t="s">
+      <c r="F142" s="7">
+        <v>1</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="H142" s="3" t="s">
+      <c r="H142" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="I142" s="12">
-        <v>1</v>
-      </c>
-      <c r="J142" s="3">
+      <c r="I142" s="7">
+        <v>0</v>
+      </c>
+      <c r="J142" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="143" ht="30" customHeight="1" spans="1:10">
-      <c r="A143" s="15" t="s">
+      <c r="A143" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="B143" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="C143" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D143" s="15" t="s">
+      <c r="C143" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="E143" s="11" t="s">
+      <c r="E143" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="F143" s="12">
-        <v>1</v>
-      </c>
-      <c r="G143" s="3" t="s">
+      <c r="F143" s="7">
+        <v>1</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="H143" s="3" t="s">
+      <c r="H143" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="I143" s="12">
-        <v>1</v>
-      </c>
-      <c r="J143" s="3">
+      <c r="I143" s="7">
+        <v>0</v>
+      </c>
+      <c r="J143" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="144" ht="30" customHeight="1" spans="1:10">
-      <c r="A144" s="15" t="s">
+      <c r="A144" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B144" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="C144" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D144" s="15" t="s">
+      <c r="C144" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D144" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="E144" s="3" t="s">
+      <c r="E144" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="F144" s="12">
-        <v>1</v>
-      </c>
-      <c r="G144" s="3" t="s">
+      <c r="F144" s="7">
+        <v>1</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="H144" s="3" t="s">
+      <c r="H144" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="I144" s="12">
-        <v>1</v>
-      </c>
-      <c r="J144" s="3">
+      <c r="I144" s="2">
+        <v>0</v>
+      </c>
+      <c r="J144" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="145" ht="30" customHeight="1" spans="1:10">
-      <c r="A145" s="15" t="s">
+      <c r="A145" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B145" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="C145" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D145" s="15" t="s">
+      <c r="C145" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="E145" s="11" t="s">
+      <c r="E145" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="F145" s="12">
-        <v>1</v>
-      </c>
-      <c r="G145" s="3" t="s">
+      <c r="F145" s="7">
+        <v>1</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="H145" s="3" t="s">
+      <c r="H145" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="I145" s="12">
-        <v>1</v>
-      </c>
-      <c r="J145" s="3">
+      <c r="I145" s="2">
+        <v>0</v>
+      </c>
+      <c r="J145" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="146" ht="30" customHeight="1" spans="1:10">
-      <c r="A146" s="15" t="s">
+      <c r="A146" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="B146" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="C146" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D146" s="15" t="s">
+      <c r="C146" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="E146" s="3" t="s">
+      <c r="E146" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="F146" s="12">
-        <v>1</v>
-      </c>
-      <c r="G146" s="3" t="s">
+      <c r="F146" s="7">
+        <v>1</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="H146" s="3" t="s">
+      <c r="H146" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="I146" s="12">
-        <v>1</v>
-      </c>
-      <c r="J146" s="3">
+      <c r="I146" s="7">
+        <v>0</v>
+      </c>
+      <c r="J146" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="147" ht="30" customHeight="1" spans="1:10">
-      <c r="A147" s="15" t="s">
+      <c r="A147" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B147" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="C147" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D147" s="15" t="s">
+      <c r="C147" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="E147" s="12" t="s">
+      <c r="E147" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="F147" s="12">
-        <v>1</v>
-      </c>
-      <c r="G147" s="3" t="s">
+      <c r="F147" s="7">
+        <v>1</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="H147" s="3" t="s">
+      <c r="H147" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="I147" s="12">
-        <v>1</v>
-      </c>
-      <c r="J147" s="3">
+      <c r="I147" s="7">
+        <v>0</v>
+      </c>
+      <c r="J147" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="148" ht="30" customHeight="1" spans="1:10">
-      <c r="A148" s="15" t="s">
+      <c r="A148" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="B148" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="C148" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D148" s="15" t="s">
+      <c r="C148" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D148" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="E148" s="3" t="s">
+      <c r="E148" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="F148" s="12">
-        <v>1</v>
-      </c>
-      <c r="G148" s="3" t="s">
+      <c r="F148" s="7">
+        <v>1</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="H148" s="3" t="s">
+      <c r="H148" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="I148" s="12">
-        <v>1</v>
-      </c>
-      <c r="J148" s="3">
+      <c r="I148" s="7">
+        <v>0</v>
+      </c>
+      <c r="J148" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="149" ht="30" customHeight="1" spans="1:10">
-      <c r="A149" s="15" t="s">
+      <c r="A149" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B149" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="C149" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D149" s="15" t="s">
+      <c r="C149" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D149" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="E149" s="4" t="s">
+      <c r="E149" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="F149" s="12">
-        <v>1</v>
-      </c>
-      <c r="G149" s="3" t="s">
+      <c r="F149" s="7">
+        <v>1</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="H149" s="3" t="s">
+      <c r="H149" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="I149" s="12">
-        <v>1</v>
-      </c>
-      <c r="J149" s="3">
+      <c r="I149" s="7">
+        <v>0</v>
+      </c>
+      <c r="J149" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="150" ht="30" customHeight="1" spans="1:10">
-      <c r="A150" s="15" t="s">
+      <c r="A150" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B150" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C150" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D150" s="15" t="s">
+      <c r="C150" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="E150" s="16" t="s">
+      <c r="E150" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="F150" s="12">
-        <v>1</v>
-      </c>
-      <c r="G150" s="3" t="s">
+      <c r="F150" s="7">
+        <v>1</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="H150" s="3" t="s">
+      <c r="H150" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="I150" s="12">
-        <v>1</v>
-      </c>
-      <c r="J150" s="3">
+      <c r="I150" s="7">
+        <v>0</v>
+      </c>
+      <c r="J150" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="151" ht="30" customHeight="1" spans="1:10">
-      <c r="A151" s="15" t="s">
+      <c r="A151" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="B151" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="C151" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D151" s="15" t="s">
+      <c r="C151" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="E151" s="3" t="s">
+      <c r="E151" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="F151" s="12">
-        <v>1</v>
-      </c>
-      <c r="G151" s="3" t="s">
+      <c r="F151" s="7">
+        <v>1</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="H151" s="3" t="s">
+      <c r="H151" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="I151" s="12">
-        <v>1</v>
-      </c>
-      <c r="J151" s="3">
+      <c r="I151" s="7">
+        <v>0</v>
+      </c>
+      <c r="J151" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="152" ht="30" customHeight="1" spans="1:10">
-      <c r="A152" s="15" t="s">
+      <c r="A152" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B152" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="C152" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D152" s="15" t="s">
+      <c r="C152" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="E152" s="3" t="s">
+      <c r="E152" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="F152" s="12">
-        <v>1</v>
-      </c>
-      <c r="G152" s="3" t="s">
+      <c r="F152" s="7">
+        <v>1</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="H152" s="3" t="s">
+      <c r="H152" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="I152" s="12">
-        <v>1</v>
-      </c>
-      <c r="J152" s="3">
+      <c r="I152" s="7">
+        <v>1</v>
+      </c>
+      <c r="J152" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="153" ht="30" customHeight="1" spans="1:10">
-      <c r="A153" s="15" t="s">
+      <c r="A153" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="B153" s="11" t="s">
+      <c r="B153" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="C153" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D153" s="15" t="s">
+      <c r="C153" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="E153" s="4" t="s">
+      <c r="E153" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="F153" s="12">
-        <v>1</v>
-      </c>
-      <c r="G153" s="3" t="s">
+      <c r="F153" s="7">
+        <v>1</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="H153" s="3" t="s">
+      <c r="H153" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="I153" s="12">
-        <v>1</v>
-      </c>
-      <c r="J153" s="3">
+      <c r="I153" s="7">
+        <v>1</v>
+      </c>
+      <c r="J153" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="154" ht="30" customHeight="1" spans="1:10">
-      <c r="A154" s="15" t="s">
+      <c r="A154" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="B154" s="11" t="s">
+      <c r="B154" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="C154" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D154" s="15" t="s">
+      <c r="C154" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="E154" s="4" t="s">
+      <c r="E154" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="F154" s="12">
-        <v>1</v>
-      </c>
-      <c r="G154" s="3" t="s">
+      <c r="F154" s="7">
+        <v>1</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="H154" s="3" t="s">
+      <c r="H154" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="I154" s="12">
-        <v>1</v>
-      </c>
-      <c r="J154" s="3">
+      <c r="I154" s="7">
+        <v>1</v>
+      </c>
+      <c r="J154" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="155" ht="30" customHeight="1" spans="1:10">
-      <c r="A155" s="15" t="s">
+      <c r="A155" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="B155" s="11" t="s">
+      <c r="B155" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="C155" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D155" s="15" t="s">
+      <c r="C155" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="E155" s="4" t="s">
+      <c r="E155" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="F155" s="12">
-        <v>1</v>
-      </c>
-      <c r="G155" s="3" t="s">
+      <c r="F155" s="7">
+        <v>1</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="H155" s="3" t="s">
+      <c r="H155" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="I155" s="12">
-        <v>1</v>
-      </c>
-      <c r="J155" s="3">
+      <c r="I155" s="7">
+        <v>1</v>
+      </c>
+      <c r="J155" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="156" ht="30" customHeight="1" spans="1:10">
-      <c r="A156" s="15" t="s">
+      <c r="A156" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="B156" s="11" t="s">
+      <c r="B156" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="C156" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D156" s="15" t="s">
+      <c r="C156" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="E156" s="4" t="s">
+      <c r="E156" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="F156" s="12">
-        <v>1</v>
-      </c>
-      <c r="G156" s="3" t="s">
+      <c r="F156" s="7">
+        <v>1</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="H156" s="3" t="s">
+      <c r="H156" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="I156" s="12">
-        <v>1</v>
-      </c>
-      <c r="J156" s="3">
+      <c r="I156" s="7">
+        <v>1</v>
+      </c>
+      <c r="J156" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="157" ht="30" customHeight="1" spans="1:10">
-      <c r="A157" s="15" t="s">
+      <c r="A157" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="B157" s="11" t="s">
+      <c r="B157" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="C157" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D157" s="15" t="s">
+      <c r="C157" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="E157" s="4" t="s">
+      <c r="E157" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="F157" s="12">
-        <v>1</v>
-      </c>
-      <c r="G157" s="3" t="s">
+      <c r="F157" s="7">
+        <v>1</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="H157" s="3" t="s">
+      <c r="H157" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="I157" s="12">
-        <v>1</v>
-      </c>
-      <c r="J157" s="3">
+      <c r="I157" s="7">
+        <v>1</v>
+      </c>
+      <c r="J157" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="158" ht="30" customHeight="1" spans="1:10">
-      <c r="A158" s="11" t="s">
+      <c r="A158" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="B158" s="11" t="s">
+      <c r="B158" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="C158" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D158" s="15" t="s">
+      <c r="C158" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D158" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="E158" s="4" t="s">
+      <c r="E158" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="F158" s="12">
-        <v>1</v>
-      </c>
-      <c r="G158" s="3" t="s">
+      <c r="F158" s="7">
+        <v>1</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="H158" s="3" t="s">
+      <c r="H158" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="I158" s="12">
-        <v>1</v>
-      </c>
-      <c r="J158" s="3">
+      <c r="I158" s="7">
+        <v>1</v>
+      </c>
+      <c r="J158" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="159" ht="30" customHeight="1" spans="1:10">
-      <c r="A159" s="11" t="s">
+      <c r="A159" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="B159" s="11" t="s">
+      <c r="B159" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="C159" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D159" s="15" t="s">
+      <c r="C159" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D159" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="E159" s="4" t="s">
+      <c r="E159" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="F159" s="12">
-        <v>1</v>
-      </c>
-      <c r="G159" s="3" t="s">
+      <c r="F159" s="7">
+        <v>1</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="H159" s="3" t="s">
+      <c r="H159" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="I159" s="12">
-        <v>1</v>
-      </c>
-      <c r="J159" s="3">
+      <c r="I159" s="7">
+        <v>1</v>
+      </c>
+      <c r="J159" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="160" ht="30" customHeight="1" spans="1:10">
-      <c r="A160" s="11" t="s">
+      <c r="A160" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="B160" s="11" t="s">
+      <c r="B160" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="C160" s="11" t="s">
+      <c r="C160" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="D160" s="15" t="s">
+      <c r="D160" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="E160" s="11" t="s">
+      <c r="E160" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="F160" s="12">
+      <c r="F160" s="7">
         <v>15</v>
       </c>
-      <c r="G160" s="3" t="s">
+      <c r="G160" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="H160" s="3" t="s">
+      <c r="H160" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="I160" s="12">
-        <v>1</v>
-      </c>
-      <c r="J160" s="3">
+      <c r="I160" s="7">
+        <v>0</v>
+      </c>
+      <c r="J160" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="161" ht="30" customHeight="1" spans="1:10">
-      <c r="A161" s="11" t="s">
+      <c r="A161" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="B161" s="11" t="s">
+      <c r="B161" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="C161" s="11" t="s">
+      <c r="C161" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="D161" s="15" t="s">
+      <c r="D161" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="E161" s="11" t="s">
+      <c r="E161" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="F161" s="12">
+      <c r="F161" s="7">
         <v>15</v>
       </c>
-      <c r="G161" s="3" t="s">
+      <c r="G161" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="H161" s="3" t="s">
+      <c r="H161" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="I161" s="12">
-        <v>1</v>
-      </c>
-      <c r="J161" s="3">
+      <c r="I161" s="7">
+        <v>0</v>
+      </c>
+      <c r="J161" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="162" ht="30" customHeight="1" spans="1:10">
-      <c r="A162" s="11" t="s">
+      <c r="A162" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="B162" s="11" t="s">
+      <c r="B162" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="C162" s="11" t="s">
+      <c r="C162" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="D162" s="15" t="s">
+      <c r="D162" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="E162" s="11" t="s">
+      <c r="E162" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="F162" s="12">
+      <c r="F162" s="7">
         <v>40</v>
       </c>
-      <c r="G162" s="3" t="s">
+      <c r="G162" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="H162" s="3" t="s">
+      <c r="H162" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="I162" s="12">
-        <v>1</v>
-      </c>
-      <c r="J162" s="3">
+      <c r="I162" s="7">
+        <v>1</v>
+      </c>
+      <c r="J162" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="163" ht="30" customHeight="1" spans="1:10">
-      <c r="A163" s="11" t="s">
+      <c r="A163" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="B163" s="11" t="s">
+      <c r="B163" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="C163" s="15" t="s">
+      <c r="C163" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="D163" s="15" t="s">
+      <c r="D163" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="E163" s="11" t="s">
+      <c r="E163" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="F163" s="12">
+      <c r="F163" s="7">
         <v>30</v>
       </c>
-      <c r="G163" s="3" t="s">
+      <c r="G163" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="H163" s="3" t="s">
+      <c r="H163" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="I163" s="12">
-        <v>1</v>
-      </c>
-      <c r="J163" s="3">
+      <c r="I163" s="7">
+        <v>1</v>
+      </c>
+      <c r="J163" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="164" ht="30" customHeight="1" spans="1:10">
-      <c r="A164" s="11" t="s">
+      <c r="A164" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="B164" s="11" t="s">
+      <c r="B164" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="C164" s="15" t="s">
+      <c r="C164" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="D164" s="15" t="s">
+      <c r="D164" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="E164" s="11" t="s">
+      <c r="E164" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="F164" s="12">
+      <c r="F164" s="7">
         <v>30</v>
       </c>
-      <c r="G164" s="3" t="s">
+      <c r="G164" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="H164" s="3" t="s">
+      <c r="H164" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="I164" s="12">
-        <v>1</v>
-      </c>
-      <c r="J164" s="3">
+      <c r="I164" s="7">
+        <v>1</v>
+      </c>
+      <c r="J164" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="165" ht="30" customHeight="1" spans="1:10">
-      <c r="A165" s="11" t="s">
+      <c r="A165" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="B165" s="11" t="s">
+      <c r="B165" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="C165" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D165" s="15" t="s">
+      <c r="C165" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D165" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="E165" s="11" t="s">
+      <c r="E165" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="F165" s="12">
-        <v>1</v>
-      </c>
-      <c r="G165" s="3" t="s">
+      <c r="F165" s="7">
+        <v>1</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="H165" s="3" t="s">
+      <c r="H165" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="I165" s="12">
-        <v>1</v>
-      </c>
-      <c r="J165" s="3">
+      <c r="I165" s="7">
+        <v>1</v>
+      </c>
+      <c r="J165" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="166" ht="30" customHeight="1" spans="1:10">
-      <c r="A166" s="11" t="s">
+      <c r="A166" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="B166" s="17" t="s">
+      <c r="B166" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="C166" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D166" s="15" t="s">
+      <c r="C166" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D166" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="E166" s="11" t="s">
+      <c r="E166" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="F166" s="12">
-        <v>1</v>
-      </c>
-      <c r="G166" s="3" t="s">
+      <c r="F166" s="7">
+        <v>1</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="H166" s="3" t="s">
+      <c r="H166" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="I166" s="12">
-        <v>1</v>
-      </c>
-      <c r="J166" s="3">
+      <c r="I166" s="7">
+        <v>1</v>
+      </c>
+      <c r="J166" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="167" ht="30" customHeight="1" spans="1:10">
-      <c r="A167" s="11" t="s">
+      <c r="A167" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="B167" s="17" t="s">
+      <c r="B167" s="8" t="s">
         <v>622</v>
       </c>
-      <c r="C167" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D167" s="15" t="s">
+      <c r="C167" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D167" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="E167" s="11" t="s">
+      <c r="E167" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="F167" s="12">
-        <v>1</v>
-      </c>
-      <c r="G167" s="3" t="s">
+      <c r="F167" s="7">
+        <v>1</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="H167" s="3" t="s">
+      <c r="H167" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="I167" s="12">
-        <v>1</v>
-      </c>
-      <c r="J167" s="3">
+      <c r="I167" s="7">
+        <v>0</v>
+      </c>
+      <c r="J167" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="168" ht="30" customHeight="1" spans="1:10">
-      <c r="A168" s="11" t="s">
+      <c r="A168" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="B168" s="17" t="s">
+      <c r="B168" s="8" t="s">
         <v>627</v>
       </c>
-      <c r="C168" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D168" s="15" t="s">
+      <c r="C168" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D168" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="E168" s="12"/>
-      <c r="F168" s="12">
-        <v>1</v>
-      </c>
-      <c r="G168" s="3" t="s">
+      <c r="E168" s="7"/>
+      <c r="F168" s="7">
+        <v>1</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="H168" s="3" t="s">
+      <c r="H168" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="I168" s="12">
-        <v>1</v>
-      </c>
-      <c r="J168" s="3">
+      <c r="I168" s="7">
+        <v>0</v>
+      </c>
+      <c r="J168" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="169" ht="30" customHeight="1" spans="1:10">
-      <c r="A169" s="11" t="s">
+      <c r="A169" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="B169" s="17" t="s">
+      <c r="B169" s="8" t="s">
         <v>631</v>
       </c>
-      <c r="C169" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D169" s="15" t="s">
+      <c r="C169" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D169" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="E169" s="12"/>
-      <c r="F169" s="12">
-        <v>1</v>
-      </c>
-      <c r="G169" s="3" t="s">
+      <c r="E169" s="7"/>
+      <c r="F169" s="7">
+        <v>1</v>
+      </c>
+      <c r="G169" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="H169" s="3" t="s">
+      <c r="H169" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="I169" s="12">
-        <v>1</v>
-      </c>
-      <c r="J169" s="3">
+      <c r="I169" s="7">
+        <v>0</v>
+      </c>
+      <c r="J169" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="170" ht="30" customHeight="1" spans="1:10">
-      <c r="A170" s="11" t="s">
+      <c r="A170" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="B170" s="17" t="s">
+      <c r="B170" s="8" t="s">
         <v>635</v>
       </c>
-      <c r="C170" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D170" s="15" t="s">
+      <c r="C170" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D170" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="E170" s="12"/>
-      <c r="F170" s="12">
-        <v>1</v>
-      </c>
-      <c r="G170" s="3" t="s">
+      <c r="E170" s="7"/>
+      <c r="F170" s="7">
+        <v>1</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="H170" s="3" t="s">
+      <c r="H170" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="I170" s="12">
-        <v>1</v>
-      </c>
-      <c r="J170" s="3">
+      <c r="I170" s="7">
+        <v>0</v>
+      </c>
+      <c r="J170" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="171" ht="30" customHeight="1" spans="1:10">
-      <c r="A171" s="11" t="s">
+      <c r="A171" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="B171" s="17" t="s">
+      <c r="B171" s="8" t="s">
         <v>639</v>
       </c>
-      <c r="C171" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D171" s="15" t="s">
+      <c r="C171" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D171" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="E171" s="12"/>
-      <c r="F171" s="12">
-        <v>1</v>
-      </c>
-      <c r="G171" s="3" t="s">
+      <c r="E171" s="7"/>
+      <c r="F171" s="7">
+        <v>1</v>
+      </c>
+      <c r="G171" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="H171" s="3" t="s">
+      <c r="H171" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="I171" s="12">
-        <v>1</v>
-      </c>
-      <c r="J171" s="12">
+      <c r="I171" s="7">
+        <v>0</v>
+      </c>
+      <c r="J171" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="172" ht="30" customHeight="1" spans="1:10">
-      <c r="A172" s="11" t="s">
+      <c r="A172" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="B172" s="17" t="s">
+      <c r="B172" s="8" t="s">
         <v>643</v>
       </c>
-      <c r="C172" s="11"/>
-      <c r="D172" s="15" t="s">
+      <c r="C172" s="6"/>
+      <c r="D172" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="E172" s="12"/>
-      <c r="F172" s="12">
+      <c r="E172" s="7"/>
+      <c r="F172" s="7">
         <v>8</v>
       </c>
-      <c r="G172" s="3" t="s">
+      <c r="G172" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="H172" s="3" t="s">
+      <c r="H172" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="I172" s="12">
-        <v>1</v>
-      </c>
-      <c r="J172" s="12">
+      <c r="I172" s="7">
+        <v>0</v>
+      </c>
+      <c r="J172" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="173" ht="30" customHeight="1" spans="1:10">
-      <c r="A173" s="11" t="s">
+      <c r="A173" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="B173" s="17" t="s">
+      <c r="B173" s="8" t="s">
         <v>647</v>
       </c>
-      <c r="C173" s="11"/>
-      <c r="D173" s="18"/>
-      <c r="E173" s="12"/>
-      <c r="F173" s="12">
+      <c r="C173" s="6"/>
+      <c r="D173" s="9"/>
+      <c r="E173" s="7"/>
+      <c r="F173" s="7">
         <v>22</v>
       </c>
-      <c r="G173" s="3" t="s">
+      <c r="G173" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="H173" s="3" t="s">
+      <c r="H173" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="I173" s="12"/>
-      <c r="J173" s="12"/>
+      <c r="I173" s="7">
+        <v>0</v>
+      </c>
+      <c r="J173" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="174" ht="30" customHeight="1" spans="1:10">
-      <c r="A174" s="11" t="s">
+      <c r="A174" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="B174" s="15" t="s">
+      <c r="B174" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="C174" s="12"/>
-      <c r="D174" s="12"/>
-      <c r="E174" s="12"/>
-      <c r="F174" s="12">
-        <v>1</v>
-      </c>
-      <c r="G174" s="3" t="s">
+      <c r="C174" s="7"/>
+      <c r="D174" s="7"/>
+      <c r="E174" s="7"/>
+      <c r="F174" s="7">
+        <v>1</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="H174" s="3" t="s">
+      <c r="H174" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="I174" s="12"/>
-      <c r="J174" s="12"/>
+      <c r="I174" s="7">
+        <v>0</v>
+      </c>
+      <c r="J174" s="7">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/data/hongfa_gw_map.xlsx
+++ b/data/hongfa_gw_map.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="21045" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1899,39 +1899,13 @@
     <t>key156</t>
   </si>
   <si>
-    <t>0x245</t>
+    <t>0x0245</t>
   </si>
   <si>
     <t>功率因素上报变化</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（10-1000）*0.001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>默认1000（即1）</t>
-    </r>
+    <t>Y/100（10-1000）*0.001 默认1000（即1）</t>
   </si>
   <si>
     <t>id157</t>
@@ -1940,39 +1914,13 @@
     <t>key157</t>
   </si>
   <si>
-    <t>0x246</t>
+    <t>0x0246</t>
   </si>
   <si>
     <t>电能上报变化</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（1-60000）*0.001Kwh</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>默认10000（即10Kwh）</t>
-    </r>
+    <t>Y/1000（1-60000）*0.001Kwh 默认10000（即10Kwh）</t>
   </si>
   <si>
     <t>id158</t>
@@ -2249,8 +2197,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -2310,7 +2258,105 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2324,46 +2370,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2383,67 +2392,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -2454,7 +2402,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2466,19 +2420,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2490,25 +2450,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2526,7 +2474,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2538,13 +2510,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2556,85 +2570,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2663,6 +2611,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2687,50 +2694,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2745,31 +2708,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2778,10 +2726,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2790,118 +2738,118 @@
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3289,9 +3237,9 @@
   <dimension ref="A1:J174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G159" sqref="G159"/>
+      <selection pane="bottomLeft" activeCell="H159" sqref="A157:H159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data/hongfa_gw_map.xlsx
+++ b/data/hongfa_gw_map.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="21045" windowHeight="9345"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="655">
   <si>
     <t>address</t>
   </si>
@@ -1764,10 +1764,25 @@
     <t>key152</t>
   </si>
   <si>
-    <t>0x241</t>
+    <t>0x0241</t>
   </si>
   <si>
     <t>电压电流上报变化率</t>
+  </si>
+  <si>
+    <t>(1-100)% 默认10%</t>
+  </si>
+  <si>
+    <t>id153</t>
+  </si>
+  <si>
+    <t>key153</t>
+  </si>
+  <si>
+    <t>0x0242</t>
+  </si>
+  <si>
+    <t>功率上报变化率</t>
   </si>
   <si>
     <r>
@@ -1799,25 +1814,13 @@
     </r>
   </si>
   <si>
-    <t>id153</t>
-  </si>
-  <si>
-    <t>key153</t>
-  </si>
-  <si>
-    <t>0x242</t>
-  </si>
-  <si>
-    <t>功率上报变化率</t>
-  </si>
-  <si>
     <t>id154</t>
   </si>
   <si>
     <t>key154</t>
   </si>
   <si>
-    <t>0x243</t>
+    <t>0x0243</t>
   </si>
   <si>
     <t>温度上报变化(针对芯片内部温度)</t>
@@ -1858,7 +1861,7 @@
     <t>key155</t>
   </si>
   <si>
-    <t>0x244</t>
+    <t>0x0244</t>
   </si>
   <si>
     <t>频率上报变化</t>
@@ -1905,7 +1908,7 @@
     <t>功率因素上报变化</t>
   </si>
   <si>
-    <t>Y/100（10-1000）*0.001 默认1000（即1）</t>
+    <t>Y/1000（10-1000）*0.001 默认1000（即1）</t>
   </si>
   <si>
     <t>id157</t>
@@ -2250,6 +2253,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2258,29 +2268,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2311,15 +2299,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2332,8 +2312,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2363,22 +2359,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -2388,6 +2368,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2402,13 +2405,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2420,19 +2429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2444,49 +2441,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2498,7 +2459,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2516,13 +2477,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2534,13 +2525,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2552,37 +2567,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2611,21 +2614,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2643,20 +2631,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2688,23 +2691,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2714,10 +2717,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2726,133 +2729,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3237,9 +3240,9 @@
   <dimension ref="A1:J174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H159" sqref="A157:H159"/>
+      <selection pane="bottomLeft" activeCell="A113" sqref="A113:F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7307,7 +7310,7 @@
         <v>454</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>455</v>
@@ -7339,7 +7342,7 @@
         <v>459</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>455</v>
@@ -7371,7 +7374,7 @@
         <v>463</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>455</v>
@@ -8035,16 +8038,16 @@
         <v>478</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="F154" s="7">
         <v>1</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="I154" s="7">
         <v>1</v>
@@ -8055,10 +8058,10 @@
     </row>
     <row r="155" ht="30" customHeight="1" spans="1:10">
       <c r="A155" s="6" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>13</v>
@@ -8067,16 +8070,16 @@
         <v>478</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F155" s="7">
         <v>1</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="I155" s="7">
         <v>1</v>
@@ -8087,10 +8090,10 @@
     </row>
     <row r="156" ht="30" customHeight="1" spans="1:10">
       <c r="A156" s="6" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>13</v>
@@ -8099,16 +8102,16 @@
         <v>478</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F156" s="7">
         <v>1</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I156" s="7">
         <v>1</v>
@@ -8119,10 +8122,10 @@
     </row>
     <row r="157" ht="30" customHeight="1" spans="1:10">
       <c r="A157" s="6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>13</v>
@@ -8131,16 +8134,16 @@
         <v>478</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F157" s="7">
         <v>1</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I157" s="7">
         <v>1</v>
@@ -8151,10 +8154,10 @@
     </row>
     <row r="158" ht="30" customHeight="1" spans="1:10">
       <c r="A158" s="6" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>13</v>
@@ -8163,16 +8166,16 @@
         <v>478</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F158" s="7">
         <v>1</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="I158" s="7">
         <v>1</v>
@@ -8183,10 +8186,10 @@
     </row>
     <row r="159" ht="30" customHeight="1" spans="1:10">
       <c r="A159" s="6" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>13</v>
@@ -8195,16 +8198,16 @@
         <v>478</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F159" s="7">
         <v>1</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="I159" s="7">
         <v>1</v>
@@ -8215,10 +8218,10 @@
     </row>
     <row r="160" ht="30" customHeight="1" spans="1:10">
       <c r="A160" s="6" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>344</v>
@@ -8233,10 +8236,10 @@
         <v>15</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="I160" s="7">
         <v>0</v>
@@ -8247,10 +8250,10 @@
     </row>
     <row r="161" ht="30" customHeight="1" spans="1:10">
       <c r="A161" s="6" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>344</v>
@@ -8265,10 +8268,10 @@
         <v>15</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="I161" s="7">
         <v>0</v>
@@ -8279,10 +8282,10 @@
     </row>
     <row r="162" ht="30" customHeight="1" spans="1:10">
       <c r="A162" s="6" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>344</v>
@@ -8291,16 +8294,16 @@
         <v>427</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F162" s="7">
         <v>40</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="I162" s="7">
         <v>1</v>
@@ -8311,10 +8314,10 @@
     </row>
     <row r="163" ht="30" customHeight="1" spans="1:10">
       <c r="A163" s="6" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>344</v>
@@ -8323,16 +8326,16 @@
         <v>427</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F163" s="7">
         <v>30</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="I163" s="7">
         <v>1</v>
@@ -8343,10 +8346,10 @@
     </row>
     <row r="164" ht="30" customHeight="1" spans="1:10">
       <c r="A164" s="6" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>344</v>
@@ -8355,16 +8358,16 @@
         <v>427</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F164" s="7">
         <v>30</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="I164" s="7">
         <v>1</v>
@@ -8375,10 +8378,10 @@
     </row>
     <row r="165" ht="30" customHeight="1" spans="1:10">
       <c r="A165" s="6" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>13</v>
@@ -8387,16 +8390,16 @@
         <v>427</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F165" s="7">
         <v>1</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="I165" s="7">
         <v>1</v>
@@ -8407,10 +8410,10 @@
     </row>
     <row r="166" ht="30" customHeight="1" spans="1:10">
       <c r="A166" s="6" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>13</v>
@@ -8419,16 +8422,16 @@
         <v>427</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F166" s="7">
         <v>1</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="I166" s="7">
         <v>1</v>
@@ -8439,10 +8442,10 @@
     </row>
     <row r="167" ht="30" customHeight="1" spans="1:10">
       <c r="A167" s="6" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>13</v>
@@ -8451,16 +8454,16 @@
         <v>427</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F167" s="7">
         <v>1</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="I167" s="7">
         <v>0</v>
@@ -8471,10 +8474,10 @@
     </row>
     <row r="168" ht="30" customHeight="1" spans="1:10">
       <c r="A168" s="6" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>13</v>
@@ -8487,10 +8490,10 @@
         <v>1</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="I168" s="7">
         <v>0</v>
@@ -8501,10 +8504,10 @@
     </row>
     <row r="169" ht="30" customHeight="1" spans="1:10">
       <c r="A169" s="6" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>13</v>
@@ -8517,10 +8520,10 @@
         <v>1</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="I169" s="7">
         <v>0</v>
@@ -8531,10 +8534,10 @@
     </row>
     <row r="170" ht="30" customHeight="1" spans="1:10">
       <c r="A170" s="6" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>13</v>
@@ -8547,10 +8550,10 @@
         <v>1</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="I170" s="7">
         <v>0</v>
@@ -8561,10 +8564,10 @@
     </row>
     <row r="171" ht="30" customHeight="1" spans="1:10">
       <c r="A171" s="6" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>13</v>
@@ -8577,10 +8580,10 @@
         <v>1</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="I171" s="7">
         <v>0</v>
@@ -8591,10 +8594,10 @@
     </row>
     <row r="172" ht="30" customHeight="1" spans="1:10">
       <c r="A172" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C172" s="6"/>
       <c r="D172" s="6" t="s">
@@ -8605,10 +8608,10 @@
         <v>8</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="I172" s="7">
         <v>0</v>
@@ -8619,10 +8622,10 @@
     </row>
     <row r="173" ht="30" customHeight="1" spans="1:10">
       <c r="A173" s="6" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C173" s="6"/>
       <c r="D173" s="9"/>
@@ -8631,10 +8634,10 @@
         <v>22</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="I173" s="7">
         <v>0</v>
@@ -8645,10 +8648,10 @@
     </row>
     <row r="174" ht="30" customHeight="1" spans="1:10">
       <c r="A174" s="6" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
@@ -8657,10 +8660,10 @@
         <v>1</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="I174" s="7">
         <v>0</v>

--- a/data/hongfa_gw_map.xlsx
+++ b/data/hongfa_gw_map.xlsx
@@ -116,7 +116,7 @@
     <t>switch_count_online</t>
   </si>
   <si>
-    <t>0x0003</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>网关的设备ID号（8个字节）</t>
@@ -2044,9 +2044,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -2066,23 +2066,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2095,6 +2108,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2110,31 +2194,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2142,68 +2204,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2218,7 +2218,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2230,7 +2266,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2242,19 +2326,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2272,73 +2356,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2350,13 +2368,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2368,37 +2380,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2427,17 +2427,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2472,11 +2466,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2486,15 +2486,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2524,16 +2515,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2542,133 +2542,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3031,8 +3031,8 @@
   <sheetPr/>
   <dimension ref="A1:N174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
